--- a/inst/extdata/2.0.0/metadata/demo/archive/ADAM_METADATA.xlsx
+++ b/inst/extdata/2.0.0/metadata/demo/archive/ADAM_METADATA.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\packages\defineR\inst\extdata\2.0.0\metadata\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50FBE11-6EA0-4670-8B0C-2F796135E39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D67CDF14-037D-44F6-91DD-58B287466E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="5130" windowWidth="29040" windowHeight="15840" tabRatio="900" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DEFINE_HEADER_METADATA" sheetId="4" r:id="rId1"/>
@@ -27,12 +27,22 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">VARIABLE_METADATA!$A$1:$P$104</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="523">
   <si>
     <t>STUDYID, USUBJID</t>
   </si>
@@ -892,9 +902,6 @@
     <t>http://www.cdisc.org/ns/odm/v1.2 util/adamres-draft2.xsd</t>
   </si>
   <si>
-    <t>CHANGEFROMBASELINE</t>
-  </si>
-  <si>
     <t>AVAL-BASE</t>
   </si>
   <si>
@@ -1036,9 +1043,6 @@
     <t>COMMENTOID</t>
   </si>
   <si>
-    <t>WC.LB.LBTESTCD.GLUC.LBCAT.CHEMISTRY</t>
-  </si>
-  <si>
     <t>Soft</t>
   </si>
   <si>
@@ -1057,9 +1061,6 @@
     <t>GLUC</t>
   </si>
   <si>
-    <t>WC.LB.LBTESTCD.GLUC.LBCAT.URINALYSIS</t>
-  </si>
-  <si>
     <t>URINALYSIS</t>
   </si>
   <si>
@@ -1078,12 +1079,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>COM.CRIT1</t>
-  </si>
-  <si>
-    <t>COM.CQ01NAME</t>
-  </si>
-  <si>
     <t>LeafPageRef</t>
   </si>
   <si>
@@ -1120,12 +1115,6 @@
     <t>Secondary efficacy endpoint</t>
   </si>
   <si>
-    <t>WC.Table_14.2.1.1</t>
-  </si>
-  <si>
-    <t>WC.Figure_14.2.1.1</t>
-  </si>
-  <si>
     <t>ADEF.ITTFL</t>
   </si>
   <si>
@@ -1133,9 +1122,6 @@
   </si>
   <si>
     <t>ADEF.PARAMCD</t>
-  </si>
-  <si>
-    <t>WC.ITTFL</t>
   </si>
   <si>
     <t>NE</t>
@@ -1229,9 +1215,6 @@
     <t>Incidence Rates of TEAEs by System Organ Class and Preferred Term</t>
   </si>
   <si>
-    <t>WC.Table_14.3.2.1</t>
-  </si>
-  <si>
     <t>SAP_Section_9.3.1</t>
   </si>
   <si>
@@ -1292,9 +1275,6 @@
     <t>See codelist</t>
   </si>
   <si>
-    <t>COM.SEECODELIST</t>
-  </si>
-  <si>
     <t>EX.EXENDTC converted to a SAS date for the last record in EX.  See SAP for missing or partial value imputations.</t>
   </si>
   <si>
@@ -1385,9 +1365,6 @@
     <t>ADSL.TRT01AN</t>
   </si>
   <si>
-    <t>COM.SEEVALUELEVEL</t>
-  </si>
-  <si>
     <t xml:space="preserve">See parameter value-level metadata </t>
   </si>
   <si>
@@ -1430,18 +1407,6 @@
     <t>WHITE</t>
   </si>
   <si>
-    <t>COM.ADAE</t>
-  </si>
-  <si>
-    <t>COM.ADSL</t>
-  </si>
-  <si>
-    <t>COM.ADEF</t>
-  </si>
-  <si>
-    <t>COM.ADTTE</t>
-  </si>
-  <si>
     <t>353</t>
   </si>
   <si>
@@ -1451,12 +1416,153 @@
     <t>354</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Analysis start day calculation</t>
   </si>
   <si>
+    <t>Analysis start date calculation</t>
+  </si>
+  <si>
+    <t>AESTDTC converted to a SAS date.  See SAP for missing or partial value imputations</t>
+  </si>
+  <si>
+    <t>Analysis end date calculation</t>
+  </si>
+  <si>
+    <t>AEENDTC converted to a SAS date.  See SAP for missing or partial value imputations</t>
+  </si>
+  <si>
+    <t>Analysis end day calculation</t>
+  </si>
+  <si>
+    <t>ASTDT - ADSL.TRTSDT + 1</t>
+  </si>
+  <si>
+    <t>AENDT - ADSL.TRTEDT + 1</t>
+  </si>
+  <si>
+    <t>SRCVAR algorithm</t>
+  </si>
+  <si>
+    <t>SRCSEQ algorithm</t>
+  </si>
+  <si>
+    <t>ADaM-IG</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACN </t>
+  </si>
+  <si>
+    <t>AE relatedness derivation</t>
+  </si>
+  <si>
+    <t>Age group derivation</t>
+  </si>
+  <si>
+    <t>If AEREL=NOT RELATED  then NOT RELATED; Otherwise RELATED</t>
+  </si>
+  <si>
+    <t>If age&lt;55 then "&lt;55 years"; else if age&gt;=55 then "&gt;=55 YEARS"</t>
+  </si>
+  <si>
+    <t>Subject level analysis dataset</t>
+  </si>
+  <si>
+    <t>Basic data structure</t>
+  </si>
+  <si>
+    <t>Last non-missing value of AVAL prior to first dose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRCVAR = ADEF if first event is a negative pain score or if worsening occurs before an improvement.  SRCVAR = ADAE if ADAE.CQ01NAM is non-missing on a date prior to a pain improvement or worsening.  </t>
+  </si>
+  <si>
+    <t>if SRCVAR=ADEF then SRCSEQ=ADEF.XPSEQ from the corresponding record; else if SRCVAR=ADAE then SRCSEQ=ADAE.AESEQ from the corresponding record.</t>
+  </si>
+  <si>
+    <t>Occurrence data structure</t>
+  </si>
+  <si>
+    <t>ORDERNUMBER</t>
+  </si>
+  <si>
+    <t>CODELISTCODE</t>
+  </si>
+  <si>
+    <t>CODELISTITEMCODE</t>
+  </si>
+  <si>
+    <t>C66767</t>
+  </si>
+  <si>
+    <t>C49503</t>
+  </si>
+  <si>
+    <t>C49504</t>
+  </si>
+  <si>
+    <t>C49505</t>
+  </si>
+  <si>
+    <t>C49501</t>
+  </si>
+  <si>
+    <t>C49502</t>
+  </si>
+  <si>
+    <t>C48660</t>
+  </si>
+  <si>
+    <t>C17998</t>
+  </si>
+  <si>
+    <t>C66796</t>
+  </si>
+  <si>
+    <t>C41338</t>
+  </si>
+  <si>
+    <t>C41339</t>
+  </si>
+  <si>
+    <t>C41340</t>
+  </si>
+  <si>
+    <t>C66781</t>
+  </si>
+  <si>
+    <t>C29848</t>
+  </si>
+  <si>
+    <t>C66731</t>
+  </si>
+  <si>
+    <t>C16576</t>
+  </si>
+  <si>
+    <t>C20197</t>
+  </si>
+  <si>
+    <t>C74457</t>
+  </si>
+  <si>
+    <t>C16352</t>
+  </si>
+  <si>
+    <t>C41260</t>
+  </si>
+  <si>
+    <t>C41261</t>
+  </si>
+  <si>
+    <t>DATASETORDER</t>
+  </si>
+  <si>
+    <t>CHANGEFROMBASELINE</t>
+  </si>
+  <si>
     <t>ADAE.ASTDT</t>
   </si>
   <si>
@@ -1469,242 +1575,59 @@
     <t>ADAE.AENDY</t>
   </si>
   <si>
-    <t>Analysis start date calculation</t>
-  </si>
-  <si>
-    <t>AESTDTC converted to a SAS date.  See SAP for missing or partial value imputations</t>
-  </si>
-  <si>
-    <t>Analysis end date calculation</t>
-  </si>
-  <si>
-    <t>AEENDTC converted to a SAS date.  See SAP for missing or partial value imputations</t>
-  </si>
-  <si>
-    <t>Analysis end day calculation</t>
-  </si>
-  <si>
-    <t>ASTDT - ADSL.TRTSDT + 1</t>
-  </si>
-  <si>
-    <t>AENDT - ADSL.TRTEDT + 1</t>
-  </si>
-  <si>
-    <t>COMP.SEEVALUELEVEL</t>
-  </si>
-  <si>
-    <t>COMP.SEECODELIST</t>
-  </si>
-  <si>
-    <t>SRCVAR algorithm</t>
-  </si>
-  <si>
-    <t>SRCSEQ algorithm</t>
-  </si>
-  <si>
-    <t>ADaM-IG</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACN </t>
-  </si>
-  <si>
-    <t>AE relatedness derivation</t>
-  </si>
-  <si>
-    <t>Age group derivation</t>
-  </si>
-  <si>
-    <t>If AEREL=NOT RELATED  then NOT RELATED; Otherwise RELATED</t>
-  </si>
-  <si>
-    <t>If age&lt;55 then "&lt;55 years"; else if age&gt;=55 then "&gt;=55 YEARS"</t>
-  </si>
-  <si>
-    <t>Subject level analysis dataset</t>
-  </si>
-  <si>
-    <t>Basic data structure</t>
-  </si>
-  <si>
-    <t>COMP.CQ01NAME</t>
-  </si>
-  <si>
-    <t>Last non-missing value of AVAL prior to first dose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRCVAR = ADEF if first event is a negative pain score or if worsening occurs before an improvement.  SRCVAR = ADAE if ADAE.CQ01NAM is non-missing on a date prior to a pain improvement or worsening.  </t>
-  </si>
-  <si>
-    <t>if SRCVAR=ADEF then SRCSEQ=ADEF.XPSEQ from the corresponding record; else if SRCVAR=ADAE then SRCSEQ=ADAE.AESEQ from the corresponding record.</t>
-  </si>
-  <si>
-    <t>Occurrence data structure</t>
-  </si>
-  <si>
-    <t>ORDERNUMBER</t>
-  </si>
-  <si>
-    <t>CODELISTCODE</t>
-  </si>
-  <si>
-    <t>CODELISTITEMCODE</t>
-  </si>
-  <si>
-    <t>C66767</t>
-  </si>
-  <si>
-    <t>C49503</t>
-  </si>
-  <si>
-    <t>C49504</t>
-  </si>
-  <si>
-    <t>C49505</t>
-  </si>
-  <si>
-    <t>C49501</t>
-  </si>
-  <si>
-    <t>C49502</t>
-  </si>
-  <si>
-    <t>C48660</t>
-  </si>
-  <si>
-    <t>C17998</t>
-  </si>
-  <si>
-    <t>C66796</t>
-  </si>
-  <si>
-    <t>C41338</t>
-  </si>
-  <si>
-    <t>C41339</t>
-  </si>
-  <si>
-    <t>C41340</t>
-  </si>
-  <si>
-    <t>C66781</t>
-  </si>
-  <si>
-    <t>C29848</t>
-  </si>
-  <si>
-    <t>C66731</t>
-  </si>
-  <si>
-    <t>C16576</t>
-  </si>
-  <si>
-    <t>C20197</t>
-  </si>
-  <si>
-    <t>C74457</t>
-  </si>
-  <si>
-    <t>C16352</t>
-  </si>
-  <si>
-    <t>C41260</t>
-  </si>
-  <si>
-    <t>C41261</t>
-  </si>
-  <si>
-    <t>DATASETORDER</t>
-  </si>
-  <si>
-    <t>MT.COMP.SEECODELIST</t>
-  </si>
-  <si>
-    <t>MT.AGEGR1</t>
-  </si>
-  <si>
-    <t>MT.ITTFL</t>
-  </si>
-  <si>
-    <t>MT.COMP.SEEVALUELEVEL</t>
-  </si>
-  <si>
-    <t>MT.ADTTE.SRCDOM</t>
-  </si>
-  <si>
-    <t>MT.ADTTE.SRCVAR</t>
-  </si>
-  <si>
-    <t>MT.ADTTE.SRCSEQ</t>
-  </si>
-  <si>
-    <t>MT.BASE</t>
-  </si>
-  <si>
-    <t>MT.CHANGEFROMBASELINE</t>
-  </si>
-  <si>
-    <t>MT.RESPONDER</t>
-  </si>
-  <si>
-    <t>MT.TTPNRELF</t>
-  </si>
-  <si>
-    <t>MT.TTPNRELF.CNSR</t>
-  </si>
-  <si>
-    <t>MT.TTPNRELF.EVNTDESC</t>
-  </si>
-  <si>
-    <t>MT.TRTSDT</t>
-  </si>
-  <si>
-    <t>MT.TRTEDT</t>
-  </si>
-  <si>
-    <t>MT.SAFFL</t>
-  </si>
-  <si>
-    <t>MT.RESPFL</t>
-  </si>
-  <si>
-    <t>MT.RANDDT</t>
-  </si>
-  <si>
-    <t>MT.ABLFL</t>
-  </si>
-  <si>
-    <t>MT.ADT</t>
-  </si>
-  <si>
-    <t>MT.ADY</t>
-  </si>
-  <si>
-    <t>MT.ADAE.ASTDT</t>
-  </si>
-  <si>
-    <t>MT.ADAE.AENDT</t>
-  </si>
-  <si>
-    <t>MT.ADAE.ASTDY</t>
-  </si>
-  <si>
-    <t>MT.ADAE.AENDY</t>
-  </si>
-  <si>
-    <t>MT.RELGR1</t>
+    <t>ADTTE.SRCDOM</t>
+  </si>
+  <si>
+    <t>ADTTE.SRCVAR</t>
+  </si>
+  <si>
+    <t>ADTTE.SRCSEQ</t>
+  </si>
+  <si>
+    <t>RESPONDER</t>
+  </si>
+  <si>
+    <t>TTPNRELF.CNSR</t>
+  </si>
+  <si>
+    <t>TTPNRELF.EVNTDESC</t>
+  </si>
+  <si>
+    <t>LB.LBTESTCD.GLUC.LBCAT.CHEMISTRY</t>
+  </si>
+  <si>
+    <t>LB.LBTESTCD.GLUC.LBCAT.URINALYSIS</t>
+  </si>
+  <si>
+    <t>Table_14.2.1.1</t>
+  </si>
+  <si>
+    <t>Figure_14.2.1.1</t>
+  </si>
+  <si>
+    <t>CQ01NAME</t>
+  </si>
+  <si>
+    <t>SEECODELIST</t>
+  </si>
+  <si>
+    <t>SEEVALUELEVEL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1811,7 +1734,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1822,15 +1745,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1840,31 +1763,31 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1876,59 +1799,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1937,24 +1860,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1964,31 +1887,31 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2001,86 +1924,90 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2418,7 +2345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="106" workbookViewId="0">
@@ -2483,16 +2410,16 @@
         <v>93</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>489</v>
+        <v>467</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="H2" s="38" t="s">
         <v>285</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -2502,7 +2429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -2528,32 +2455,32 @@
         <v>273</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>274</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="18"/>
       <c r="E2" s="16" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>133</v>
@@ -2564,13 +2491,13 @@
         <v>275</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>261</v>
@@ -2581,13 +2508,13 @@
         <v>276</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>270</v>
@@ -2598,13 +2525,13 @@
         <v>277</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>264</v>
@@ -2612,19 +2539,19 @@
     </row>
     <row r="6" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2632,13 +2559,13 @@
         <v>258</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C7" s="27">
         <v>302</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>278</v>
@@ -2649,13 +2576,13 @@
         <v>265</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C8" s="27">
         <v>352</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>279</v>
@@ -2663,19 +2590,19 @@
     </row>
     <row r="9" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2683,13 +2610,13 @@
         <v>281</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>280</v>
@@ -2697,13 +2624,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B11" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -2713,11 +2640,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="A1:L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2744,7 +2671,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>527</v>
+        <v>504</v>
       </c>
       <c r="D1" s="43" t="s">
         <v>5</v>
@@ -2771,7 +2698,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="44" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
@@ -2794,22 +2721,22 @@
         <v>236</v>
       </c>
       <c r="G2" s="45" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H2" s="45" t="s">
         <v>237</v>
       </c>
       <c r="I2" s="47" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J2" s="47" t="s">
-        <v>502</v>
+        <v>479</v>
       </c>
       <c r="K2" s="45" t="s">
         <v>206</v>
       </c>
       <c r="L2" s="48" t="s">
-        <v>465</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
@@ -2841,13 +2768,13 @@
         <v>0</v>
       </c>
       <c r="J3" s="47" t="s">
-        <v>496</v>
+        <v>474</v>
       </c>
       <c r="K3" s="45" t="s">
         <v>145</v>
       </c>
       <c r="L3" s="45" t="s">
-        <v>466</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
@@ -2870,7 +2797,7 @@
         <v>236</v>
       </c>
       <c r="G4" s="45" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H4" s="45" t="s">
         <v>14</v>
@@ -2879,13 +2806,13 @@
         <v>240</v>
       </c>
       <c r="J4" s="47" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="K4" s="45" t="s">
         <v>175</v>
       </c>
       <c r="L4" s="45" t="s">
-        <v>467</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2908,7 +2835,7 @@
         <v>236</v>
       </c>
       <c r="G5" s="45" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H5" s="46" t="s">
         <v>241</v>
@@ -2917,13 +2844,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="47" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="K5" s="49" t="s">
         <v>222</v>
       </c>
       <c r="L5" s="49" t="s">
-        <v>468</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -3018,7 +2945,7 @@
       <c r="K12" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -3026,12 +2953,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P104"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L97" sqref="L97"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3046,7 +2973,7 @@
     <col min="9" max="9" width="20.42578125" style="51" customWidth="1"/>
     <col min="10" max="10" width="22.42578125" style="51" customWidth="1"/>
     <col min="11" max="11" width="25.28515625" style="51" customWidth="1"/>
-    <col min="12" max="12" width="25.42578125" style="51" customWidth="1"/>
+    <col min="12" max="12" width="34.42578125" style="51" customWidth="1"/>
     <col min="13" max="16" width="17.7109375" style="51" customWidth="1"/>
     <col min="17" max="17" width="14.85546875" style="53" customWidth="1"/>
     <col min="18" max="16384" width="8.85546875" style="53"/>
@@ -3072,7 +2999,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="54" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H1" s="54" t="s">
         <v>20</v>
@@ -3081,7 +3008,7 @@
         <v>21</v>
       </c>
       <c r="J1" s="56" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K1" s="54" t="s">
         <v>23</v>
@@ -3300,7 +3227,7 @@
       <c r="G7" s="57"/>
       <c r="H7" s="57"/>
       <c r="I7" s="57" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="J7" s="59"/>
       <c r="K7" s="57"/>
@@ -3410,7 +3337,7 @@
       </c>
       <c r="J10" s="63"/>
       <c r="K10" s="61"/>
-      <c r="L10" s="61" t="s">
+      <c r="L10" s="113" t="s">
         <v>148</v>
       </c>
       <c r="M10" s="61" t="s">
@@ -3448,8 +3375,8 @@
       </c>
       <c r="J11" s="63"/>
       <c r="K11" s="61"/>
-      <c r="L11" s="61" t="s">
-        <v>486</v>
+      <c r="L11" s="113" t="s">
+        <v>521</v>
       </c>
       <c r="M11" s="61" t="s">
         <v>150</v>
@@ -3732,7 +3659,7 @@
       <c r="G19" s="57"/>
       <c r="H19" s="57"/>
       <c r="I19" s="57" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="J19" s="59"/>
       <c r="K19" s="57"/>
@@ -3768,7 +3695,7 @@
       <c r="G20" s="57"/>
       <c r="H20" s="57"/>
       <c r="I20" s="57" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="J20" s="59"/>
       <c r="K20" s="57"/>
@@ -3808,8 +3735,8 @@
       </c>
       <c r="J21" s="57"/>
       <c r="K21" s="57"/>
-      <c r="L21" s="63" t="s">
-        <v>486</v>
+      <c r="L21" s="114" t="s">
+        <v>521</v>
       </c>
       <c r="M21" s="57" t="s">
         <v>165</v>
@@ -3846,8 +3773,8 @@
       </c>
       <c r="J22" s="57"/>
       <c r="K22" s="57"/>
-      <c r="L22" s="63" t="s">
-        <v>486</v>
+      <c r="L22" s="114" t="s">
+        <v>521</v>
       </c>
       <c r="M22" s="57" t="s">
         <v>165</v>
@@ -3888,7 +3815,7 @@
         <v>168</v>
       </c>
       <c r="M23" s="60" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="N23" s="64" t="s">
         <v>11</v>
@@ -3926,7 +3853,7 @@
         <v>170</v>
       </c>
       <c r="M24" s="64" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="N24" s="64" t="s">
         <v>11</v>
@@ -3964,7 +3891,7 @@
         <v>173</v>
       </c>
       <c r="M25" s="64" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="N25" s="61" t="s">
         <v>11</v>
@@ -4140,7 +4067,7 @@
       </c>
       <c r="J30" s="59"/>
       <c r="K30" s="57" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L30" s="57"/>
       <c r="M30" s="57"/>
@@ -4210,8 +4137,8 @@
       </c>
       <c r="J32" s="59"/>
       <c r="K32" s="57"/>
-      <c r="L32" s="61" t="s">
-        <v>486</v>
+      <c r="L32" s="113" t="s">
+        <v>521</v>
       </c>
       <c r="M32" s="61" t="s">
         <v>150</v>
@@ -4248,7 +4175,7 @@
       </c>
       <c r="J33" s="59"/>
       <c r="K33" s="57"/>
-      <c r="L33" s="61" t="s">
+      <c r="L33" s="113" t="s">
         <v>148</v>
       </c>
       <c r="M33" s="61" t="s">
@@ -4354,7 +4281,7 @@
       <c r="G36" s="57"/>
       <c r="H36" s="57"/>
       <c r="I36" s="57" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="J36" s="63"/>
       <c r="K36" s="57"/>
@@ -4390,7 +4317,7 @@
       <c r="G37" s="57"/>
       <c r="H37" s="57"/>
       <c r="I37" s="57" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="J37" s="63"/>
       <c r="K37" s="57"/>
@@ -4430,15 +4357,15 @@
       </c>
       <c r="H38" s="57"/>
       <c r="I38" s="57" t="s">
-        <v>428</v>
-      </c>
-      <c r="J38" s="63" t="s">
-        <v>419</v>
+        <v>418</v>
+      </c>
+      <c r="J38" s="114" t="s">
+        <v>521</v>
       </c>
       <c r="K38" s="57"/>
       <c r="L38" s="63"/>
       <c r="M38" s="60" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="N38" s="60" t="s">
         <v>11</v>
@@ -4468,15 +4395,15 @@
       <c r="G39" s="57"/>
       <c r="H39" s="57"/>
       <c r="I39" s="57" t="s">
-        <v>428</v>
-      </c>
-      <c r="J39" s="63" t="s">
-        <v>419</v>
+        <v>418</v>
+      </c>
+      <c r="J39" s="114" t="s">
+        <v>521</v>
       </c>
       <c r="K39" s="57"/>
       <c r="L39" s="63"/>
       <c r="M39" s="60" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="N39" s="60" t="s">
         <v>11</v>
@@ -4506,7 +4433,7 @@
       <c r="G40" s="57"/>
       <c r="H40" s="57"/>
       <c r="I40" s="57" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="J40" s="63"/>
       <c r="K40" s="57"/>
@@ -4540,7 +4467,7 @@
         <v>187</v>
       </c>
       <c r="G41" s="57" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H41" s="57"/>
       <c r="I41" s="57" t="s">
@@ -4548,8 +4475,8 @@
       </c>
       <c r="J41" s="57"/>
       <c r="K41" s="57"/>
-      <c r="L41" s="63" t="s">
-        <v>486</v>
+      <c r="L41" s="114" t="s">
+        <v>521</v>
       </c>
       <c r="M41" s="60" t="s">
         <v>186</v>
@@ -4590,7 +4517,7 @@
         <v>188</v>
       </c>
       <c r="M42" s="60" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="N42" s="60" t="s">
         <v>11</v>
@@ -4620,7 +4547,7 @@
       <c r="G43" s="57"/>
       <c r="H43" s="57"/>
       <c r="I43" s="57" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="J43" s="59"/>
       <c r="K43" s="57"/>
@@ -4654,7 +4581,7 @@
       <c r="G44" s="57"/>
       <c r="H44" s="57"/>
       <c r="I44" s="57" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="J44" s="59"/>
       <c r="K44" s="57"/>
@@ -4688,7 +4615,7 @@
         <v>191</v>
       </c>
       <c r="G45" s="57" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H45" s="57"/>
       <c r="I45" s="57" t="s">
@@ -4696,7 +4623,7 @@
       </c>
       <c r="J45" s="59"/>
       <c r="K45" s="57" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L45" s="57" t="s">
         <v>190</v>
@@ -4771,7 +4698,7 @@
       <c r="J47" s="57"/>
       <c r="K47" s="57"/>
       <c r="L47" s="68" t="s">
-        <v>485</v>
+        <v>522</v>
       </c>
       <c r="M47" s="57"/>
       <c r="N47" s="60" t="s">
@@ -4807,7 +4734,7 @@
       <c r="J48" s="57"/>
       <c r="K48" s="57"/>
       <c r="L48" s="68" t="s">
-        <v>485</v>
+        <v>522</v>
       </c>
       <c r="M48" s="57"/>
       <c r="N48" s="60" t="s">
@@ -4879,7 +4806,7 @@
       <c r="J50" s="57"/>
       <c r="K50" s="57"/>
       <c r="L50" s="68" t="s">
-        <v>286</v>
+        <v>505</v>
       </c>
       <c r="M50" s="57"/>
       <c r="N50" s="60" t="s">
@@ -4915,10 +4842,10 @@
       <c r="J51" s="57"/>
       <c r="K51" s="57"/>
       <c r="L51" s="68" t="s">
-        <v>485</v>
+        <v>522</v>
       </c>
       <c r="M51" s="60" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="N51" s="60" t="s">
         <v>11</v>
@@ -4951,11 +4878,11 @@
         <v>32</v>
       </c>
       <c r="J52" s="57" t="s">
-        <v>348</v>
+        <v>203</v>
       </c>
       <c r="K52" s="57"/>
       <c r="L52" s="68" t="s">
-        <v>485</v>
+        <v>522</v>
       </c>
       <c r="M52" s="57"/>
       <c r="N52" s="60" t="s">
@@ -4992,7 +4919,7 @@
       <c r="K53" s="57"/>
       <c r="L53" s="57"/>
       <c r="M53" s="64" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="N53" s="60" t="s">
         <v>11</v>
@@ -5180,7 +5107,7 @@
       <c r="G58" s="57"/>
       <c r="H58" s="57"/>
       <c r="I58" s="57" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="J58" s="59"/>
       <c r="K58" s="57"/>
@@ -5256,8 +5183,8 @@
       </c>
       <c r="J60" s="59"/>
       <c r="K60" s="57"/>
-      <c r="L60" s="61" t="s">
-        <v>486</v>
+      <c r="L60" s="113" t="s">
+        <v>521</v>
       </c>
       <c r="M60" s="57"/>
       <c r="N60" s="57" t="s">
@@ -5292,7 +5219,7 @@
       </c>
       <c r="J61" s="59"/>
       <c r="K61" s="57"/>
-      <c r="L61" s="61" t="s">
+      <c r="L61" s="113" t="s">
         <v>148</v>
       </c>
       <c r="M61" s="61" t="s">
@@ -5364,7 +5291,7 @@
       <c r="G63" s="57"/>
       <c r="H63" s="57"/>
       <c r="I63" s="57" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="J63" s="59"/>
       <c r="K63" s="57"/>
@@ -5402,7 +5329,7 @@
       <c r="G64" s="57"/>
       <c r="H64" s="57"/>
       <c r="I64" s="57" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="J64" s="59"/>
       <c r="K64" s="57"/>
@@ -5440,7 +5367,7 @@
       <c r="G65" s="57"/>
       <c r="H65" s="57"/>
       <c r="I65" s="57" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="J65" s="59"/>
       <c r="K65" s="57"/>
@@ -5476,11 +5403,11 @@
         <v>45</v>
       </c>
       <c r="G66" s="57" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H66" s="57"/>
       <c r="I66" s="57" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="J66" s="59"/>
       <c r="K66" s="57"/>
@@ -5520,7 +5447,7 @@
       <c r="G67" s="57"/>
       <c r="H67" s="57"/>
       <c r="I67" s="57" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="J67" s="59"/>
       <c r="K67" s="57"/>
@@ -5546,7 +5473,7 @@
         <v>15</v>
       </c>
       <c r="C68" s="57" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D68" s="57" t="s">
         <v>39</v>
@@ -5567,7 +5494,7 @@
       <c r="J68" s="59"/>
       <c r="K68" s="57"/>
       <c r="L68" s="60" t="s">
-        <v>474</v>
+        <v>506</v>
       </c>
       <c r="M68" s="57"/>
       <c r="N68" s="57" t="s">
@@ -5588,7 +5515,7 @@
         <v>16</v>
       </c>
       <c r="C69" s="57" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D69" s="57" t="s">
         <v>39</v>
@@ -5607,7 +5534,7 @@
       <c r="J69" s="59"/>
       <c r="K69" s="57"/>
       <c r="L69" s="60" t="s">
-        <v>475</v>
+        <v>507</v>
       </c>
       <c r="M69" s="57"/>
       <c r="N69" s="57" t="s">
@@ -5628,7 +5555,7 @@
         <v>17</v>
       </c>
       <c r="C70" s="57" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D70" s="57" t="s">
         <v>39</v>
@@ -5647,7 +5574,7 @@
       <c r="J70" s="59"/>
       <c r="K70" s="57"/>
       <c r="L70" s="60" t="s">
-        <v>476</v>
+        <v>508</v>
       </c>
       <c r="M70" s="57"/>
       <c r="N70" s="57" t="s">
@@ -5664,7 +5591,7 @@
         <v>18</v>
       </c>
       <c r="C71" s="57" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D71" s="57" t="s">
         <v>39</v>
@@ -5683,7 +5610,7 @@
       <c r="J71" s="59"/>
       <c r="K71" s="57"/>
       <c r="L71" s="60" t="s">
-        <v>477</v>
+        <v>509</v>
       </c>
       <c r="M71" s="57"/>
       <c r="N71" s="57" t="s">
@@ -5714,7 +5641,7 @@
       <c r="G72" s="57"/>
       <c r="H72" s="57"/>
       <c r="I72" s="57" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="J72" s="59"/>
       <c r="K72" s="57"/>
@@ -5760,8 +5687,8 @@
       <c r="K73" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="L73" s="63" t="s">
-        <v>486</v>
+      <c r="L73" s="114" t="s">
+        <v>521</v>
       </c>
       <c r="M73" s="60" t="s">
         <v>211</v>
@@ -5794,13 +5721,13 @@
       <c r="G74" s="57"/>
       <c r="H74" s="57"/>
       <c r="I74" s="57" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="J74" s="59"/>
       <c r="K74" s="57"/>
       <c r="L74" s="57"/>
       <c r="M74" s="60" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="N74" s="57" t="s">
         <v>11</v>
@@ -5834,13 +5761,13 @@
       <c r="G75" s="57"/>
       <c r="H75" s="57"/>
       <c r="I75" s="57" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="J75" s="59"/>
       <c r="K75" s="57"/>
       <c r="L75" s="57"/>
       <c r="M75" s="60" t="s">
-        <v>491</v>
+        <v>469</v>
       </c>
       <c r="N75" s="57" t="s">
         <v>11</v>
@@ -5874,7 +5801,7 @@
       <c r="G76" s="57"/>
       <c r="H76" s="57"/>
       <c r="I76" s="57" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="J76" s="59"/>
       <c r="K76" s="57"/>
@@ -5920,8 +5847,8 @@
       <c r="K77" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="L77" s="63" t="s">
-        <v>486</v>
+      <c r="L77" s="114" t="s">
+        <v>521</v>
       </c>
       <c r="M77" s="60" t="s">
         <v>213</v>
@@ -5959,7 +5886,7 @@
       <c r="J78" s="57"/>
       <c r="K78" s="57"/>
       <c r="L78" s="60" t="s">
-        <v>498</v>
+        <v>520</v>
       </c>
       <c r="M78" s="57"/>
       <c r="N78" s="57" t="s">
@@ -6032,8 +5959,8 @@
       </c>
       <c r="J80" s="59"/>
       <c r="K80" s="57"/>
-      <c r="L80" s="61" t="s">
-        <v>486</v>
+      <c r="L80" s="113" t="s">
+        <v>521</v>
       </c>
       <c r="M80" s="57" t="s">
         <v>218</v>
@@ -6072,7 +5999,7 @@
       <c r="K81" s="57"/>
       <c r="L81" s="57"/>
       <c r="M81" s="60" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="N81" s="57" t="s">
         <v>11</v>
@@ -6108,7 +6035,7 @@
       <c r="K82" s="64"/>
       <c r="L82" s="64"/>
       <c r="M82" s="64" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="N82" s="57" t="s">
         <v>11</v>
@@ -6322,8 +6249,8 @@
       </c>
       <c r="J88" s="59"/>
       <c r="K88" s="57"/>
-      <c r="L88" s="61" t="s">
-        <v>528</v>
+      <c r="L88" s="113" t="s">
+        <v>521</v>
       </c>
       <c r="M88" s="57"/>
       <c r="N88" s="57" t="s">
@@ -6358,8 +6285,8 @@
       </c>
       <c r="J89" s="59"/>
       <c r="K89" s="57"/>
-      <c r="L89" s="61" t="s">
-        <v>529</v>
+      <c r="L89" s="113" t="s">
+        <v>148</v>
       </c>
       <c r="M89" s="61" t="s">
         <v>148</v>
@@ -6462,7 +6389,7 @@
       <c r="G92" s="57"/>
       <c r="H92" s="57"/>
       <c r="I92" s="57" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="J92" s="63"/>
       <c r="K92" s="57"/>
@@ -6498,7 +6425,7 @@
       <c r="G93" s="57"/>
       <c r="H93" s="57"/>
       <c r="I93" s="57" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="J93" s="59"/>
       <c r="K93" s="57"/>
@@ -6536,13 +6463,13 @@
       </c>
       <c r="H94" s="57"/>
       <c r="I94" s="57" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="J94" s="59"/>
       <c r="K94" s="57"/>
       <c r="L94" s="57"/>
       <c r="M94" s="57" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="N94" s="57" t="s">
         <v>11</v>
@@ -6572,13 +6499,13 @@
       <c r="G95" s="57"/>
       <c r="H95" s="57"/>
       <c r="I95" s="57" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="J95" s="59"/>
       <c r="K95" s="57"/>
       <c r="L95" s="57"/>
       <c r="M95" s="60" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="N95" s="57" t="s">
         <v>11</v>
@@ -6681,7 +6608,7 @@
       <c r="J98" s="57"/>
       <c r="K98" s="57"/>
       <c r="L98" s="68" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="M98" s="57"/>
       <c r="N98" s="60" t="s">
@@ -6717,7 +6644,7 @@
       <c r="J99" s="57"/>
       <c r="K99" s="57"/>
       <c r="L99" s="68" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="M99" s="57"/>
       <c r="N99" s="60" t="s">
@@ -6743,7 +6670,7 @@
         <v>50</v>
       </c>
       <c r="F100" s="57" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="G100" s="57"/>
       <c r="H100" s="57"/>
@@ -6753,7 +6680,7 @@
       <c r="J100" s="57"/>
       <c r="K100" s="57"/>
       <c r="L100" s="68" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="M100" s="57"/>
       <c r="N100" s="60" t="s">
@@ -6789,7 +6716,7 @@
       <c r="J101" s="59"/>
       <c r="K101" s="57"/>
       <c r="L101" s="60" t="s">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="M101" s="57"/>
       <c r="N101" s="57" t="s">
@@ -6825,7 +6752,7 @@
       <c r="J102" s="59"/>
       <c r="K102" s="57"/>
       <c r="L102" s="60" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="M102" s="57"/>
       <c r="N102" s="57" t="s">
@@ -6861,7 +6788,7 @@
       <c r="J103" s="59"/>
       <c r="K103" s="57"/>
       <c r="L103" s="60" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="M103" s="57"/>
       <c r="N103" s="57" t="s">
@@ -6898,7 +6825,7 @@
       <c r="K104" s="57"/>
       <c r="L104" s="57"/>
       <c r="M104" s="60" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="N104" s="60" t="s">
         <v>11</v>
@@ -6907,18 +6834,18 @@
       <c r="P104" s="57"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P104" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:P104"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6946,10 +6873,10 @@
         <v>17</v>
       </c>
       <c r="C1" s="69" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E1" s="69" t="s">
         <v>16</v>
@@ -6973,7 +6900,7 @@
         <v>21</v>
       </c>
       <c r="L1" s="70" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M1" s="69" t="s">
         <v>23</v>
@@ -7022,7 +6949,7 @@
       </c>
       <c r="J2" s="72"/>
       <c r="K2" s="73" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L2" s="74"/>
       <c r="M2" s="72" t="s">
@@ -7059,24 +6986,24 @@
         <v>30</v>
       </c>
       <c r="H3" s="72" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I3" s="72" t="s">
         <v>244</v>
       </c>
       <c r="J3" s="75"/>
       <c r="K3" s="75" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="L3" s="76" t="s">
-        <v>348</v>
+        <v>203</v>
       </c>
       <c r="M3" s="72" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N3" s="75"/>
       <c r="O3" s="77" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="P3" s="72" t="s">
         <v>11</v>
@@ -7116,13 +7043,13 @@
       </c>
       <c r="L4" s="76"/>
       <c r="M4" s="75" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N4" s="72" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
       <c r="O4" s="79" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="P4" s="72" t="s">
         <v>11</v>
@@ -7145,7 +7072,7 @@
         <v>96</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G5" s="72" t="s">
         <v>39</v>
@@ -7154,7 +7081,7 @@
         <v>243</v>
       </c>
       <c r="I5" s="72" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="J5" s="72"/>
       <c r="K5" s="73" t="s">
@@ -7162,10 +7089,10 @@
       </c>
       <c r="L5" s="74"/>
       <c r="M5" s="72" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="N5" s="75" t="s">
-        <v>538</v>
+        <v>362</v>
       </c>
       <c r="O5" s="72"/>
       <c r="P5" s="72" t="s">
@@ -7189,7 +7116,7 @@
         <v>96</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G6" s="72" t="s">
         <v>39</v>
@@ -7206,13 +7133,13 @@
       </c>
       <c r="L6" s="74"/>
       <c r="M6" s="75" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="N6" s="75" t="s">
-        <v>539</v>
+        <v>514</v>
       </c>
       <c r="O6" s="75" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P6" s="75" t="s">
         <v>11</v>
@@ -7241,7 +7168,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="75" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="I7" s="73" t="s">
         <v>229</v>
@@ -7252,10 +7179,10 @@
       </c>
       <c r="L7" s="74"/>
       <c r="M7" s="75" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="N7" s="75" t="s">
-        <v>540</v>
+        <v>515</v>
       </c>
       <c r="O7" s="75" t="s">
         <v>228</v>
@@ -7273,17 +7200,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="36.5703125" style="12" customWidth="1"/>
     <col min="2" max="2" width="51.7109375" style="18" customWidth="1"/>
     <col min="3" max="3" width="17" style="12" customWidth="1"/>
     <col min="4" max="4" width="65.42578125" style="18" customWidth="1"/>
@@ -7306,352 +7233,352 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="77" t="s">
-        <v>535</v>
+        <v>197</v>
       </c>
       <c r="B2" s="82" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="C2" s="77" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D2" s="83" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="84" t="s">
-        <v>536</v>
+        <v>505</v>
       </c>
       <c r="B3" s="85" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="C3" s="85" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D3" s="83" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="77" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
       <c r="B4" s="82" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="C4" s="77" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D4" s="82" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="33" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="86" t="s">
-        <v>538</v>
+        <v>362</v>
       </c>
       <c r="B5" s="86" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="C5" s="87" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D5" s="88" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="33" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="86" t="s">
-        <v>539</v>
+        <v>514</v>
       </c>
       <c r="B6" s="86" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="C6" s="87" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D6" s="88" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="33" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="86" t="s">
-        <v>540</v>
+        <v>515</v>
       </c>
       <c r="B7" s="86" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="C7" s="87" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D7" s="88" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="77" t="s">
-        <v>541</v>
+        <v>156</v>
       </c>
       <c r="B8" s="82" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="C8" s="77" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D8" s="82" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="77" t="s">
-        <v>542</v>
+        <v>158</v>
       </c>
       <c r="B9" s="82" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="C9" s="77" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="77" t="s">
-        <v>530</v>
+        <v>168</v>
       </c>
       <c r="B10" s="82" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="C10" s="77" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D10" s="82" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="77" t="s">
-        <v>543</v>
+        <v>170</v>
       </c>
       <c r="B11" s="82" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="C11" s="77" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D11" s="82" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="77" t="s">
-        <v>544</v>
+        <v>173</v>
       </c>
       <c r="B12" s="82" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="C12" s="77" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D12" s="82" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="77" t="s">
-        <v>545</v>
+        <v>154</v>
       </c>
       <c r="B13" s="82" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="C13" s="77" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="77" t="s">
-        <v>546</v>
+        <v>188</v>
       </c>
       <c r="B14" s="82" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="C14" s="77" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D14" s="82" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="77" t="s">
-        <v>547</v>
+        <v>190</v>
       </c>
       <c r="B15" s="82" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="C15" s="77" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="77" t="s">
-        <v>548</v>
+        <v>192</v>
       </c>
       <c r="B16" s="82" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="C16" s="77" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D16" s="82" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="77" t="s">
-        <v>549</v>
+        <v>506</v>
       </c>
       <c r="B17" s="82" t="s">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="C17" s="77" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D17" s="82" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="77" t="s">
-        <v>550</v>
+        <v>507</v>
       </c>
       <c r="B18" s="82" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="C18" s="77" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D18" s="82" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="77" t="s">
-        <v>551</v>
+        <v>508</v>
       </c>
       <c r="B19" s="82" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="C19" s="77" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D19" s="82" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="77" t="s">
-        <v>552</v>
+        <v>509</v>
       </c>
       <c r="B20" s="82" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="C20" s="77" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D20" s="82" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" s="84" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="B21" s="82" t="s">
-        <v>487</v>
+        <v>465</v>
       </c>
       <c r="C21" s="77" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D21" s="82" t="s">
-        <v>500</v>
+        <v>477</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="84" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="B22" s="82" t="s">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="C22" s="77" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D22" s="82" t="s">
-        <v>501</v>
+        <v>478</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="77" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B23" s="83" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="C23" s="77" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D23" s="83" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="77" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="B24" s="83" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="C24" s="77" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D24" s="83" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="84" t="s">
-        <v>553</v>
+        <v>215</v>
       </c>
       <c r="B25" s="82" t="s">
-        <v>492</v>
+        <v>470</v>
       </c>
       <c r="C25" s="77" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D25" s="82" t="s">
-        <v>494</v>
+        <v>472</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="84" t="s">
-        <v>529</v>
+        <v>148</v>
       </c>
       <c r="B26" s="82" t="s">
-        <v>493</v>
+        <v>471</v>
       </c>
       <c r="C26" s="77" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D26" s="82" t="s">
-        <v>495</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -7661,11 +7588,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="A1:G12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7680,126 +7607,126 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="71" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1" s="89" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="C1" s="71" t="s">
         <v>328</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="D1" s="71" t="s">
         <v>329</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="E1" s="71" t="s">
         <v>330</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="F1" s="71" t="s">
         <v>331</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="G1" s="71" t="s">
         <v>332</v>
-      </c>
-      <c r="G1" s="71" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
-        <v>334</v>
+        <v>516</v>
       </c>
       <c r="B2" s="73" t="s">
         <v>96</v>
       </c>
       <c r="C2" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" s="48" t="s">
         <v>335</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="F2" s="48" t="s">
         <v>336</v>
-      </c>
-      <c r="E2" s="48" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>338</v>
       </c>
       <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
-        <v>334</v>
+        <v>516</v>
       </c>
       <c r="B3" s="73" t="s">
         <v>106</v>
       </c>
       <c r="C3" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="E3" s="48" t="s">
         <v>335</v>
       </c>
-      <c r="D3" s="48" t="s">
-        <v>339</v>
-      </c>
-      <c r="E3" s="48" t="s">
-        <v>337</v>
-      </c>
       <c r="F3" s="48" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G3" s="48"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
-        <v>341</v>
+        <v>517</v>
       </c>
       <c r="B4" s="73" t="s">
         <v>96</v>
       </c>
       <c r="C4" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="E4" s="48" t="s">
         <v>335</v>
       </c>
-      <c r="D4" s="48" t="s">
-        <v>336</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>337</v>
-      </c>
       <c r="F4" s="48" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G4" s="48"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
-        <v>341</v>
+        <v>517</v>
       </c>
       <c r="B5" s="73" t="s">
         <v>106</v>
       </c>
       <c r="C5" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="E5" s="48" t="s">
         <v>335</v>
       </c>
-      <c r="D5" s="48" t="s">
-        <v>339</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>337</v>
-      </c>
       <c r="F5" s="48" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G5" s="48"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="87" t="s">
-        <v>367</v>
+        <v>168</v>
       </c>
       <c r="B6" s="73" t="s">
         <v>96</v>
       </c>
       <c r="C6" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>302</v>
+      </c>
+      <c r="E6" s="48" t="s">
         <v>335</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>303</v>
-      </c>
-      <c r="E6" s="48" t="s">
-        <v>337</v>
       </c>
       <c r="F6" s="48" t="s">
         <v>133</v>
@@ -7809,19 +7736,19 @@
     </row>
     <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="87" t="s">
-        <v>362</v>
+        <v>518</v>
       </c>
       <c r="B7" s="73" t="s">
         <v>96</v>
       </c>
       <c r="C7" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>357</v>
+      </c>
+      <c r="E7" s="48" t="s">
         <v>335</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>364</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>337</v>
       </c>
       <c r="F7" s="48" t="s">
         <v>133</v>
@@ -7831,19 +7758,19 @@
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="87" t="s">
-        <v>362</v>
+        <v>518</v>
       </c>
       <c r="B8" s="73" t="s">
         <v>106</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="F8" s="48" t="s">
         <v>133</v>
@@ -7853,19 +7780,19 @@
     </row>
     <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="87" t="s">
-        <v>362</v>
+        <v>518</v>
       </c>
       <c r="B9" s="73" t="s">
         <v>103</v>
       </c>
       <c r="C9" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>359</v>
+      </c>
+      <c r="E9" s="48" t="s">
         <v>335</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>366</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>337</v>
       </c>
       <c r="F9" s="48" t="s">
         <v>242</v>
@@ -7875,19 +7802,19 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="86" t="s">
-        <v>363</v>
+        <v>519</v>
       </c>
       <c r="B10" s="73" t="s">
         <v>96</v>
       </c>
       <c r="C10" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>365</v>
+      </c>
+      <c r="E10" s="48" t="s">
         <v>335</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>373</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>337</v>
       </c>
       <c r="F10" s="48" t="s">
         <v>133</v>
@@ -7897,41 +7824,41 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="86" t="s">
-        <v>363</v>
+        <v>519</v>
       </c>
       <c r="B11" s="73" t="s">
         <v>106</v>
       </c>
       <c r="C11" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>363</v>
+      </c>
+      <c r="E11" s="48" t="s">
         <v>335</v>
       </c>
-      <c r="D11" s="48" t="s">
-        <v>371</v>
-      </c>
-      <c r="E11" s="48" t="s">
-        <v>337</v>
-      </c>
       <c r="F11" s="48" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G11" s="48"/>
       <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="86" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="B12" s="73" t="s">
         <v>96</v>
       </c>
       <c r="C12" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="D12" s="77" t="s">
+        <v>391</v>
+      </c>
+      <c r="E12" s="48" t="s">
         <v>335</v>
-      </c>
-      <c r="D12" s="77" t="s">
-        <v>400</v>
-      </c>
-      <c r="E12" s="48" t="s">
-        <v>337</v>
       </c>
       <c r="F12" s="48" t="s">
         <v>133</v>
@@ -7945,11 +7872,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="A1:B9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7965,7 +7892,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="71" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B1" s="90" t="s">
         <v>22</v>
@@ -7973,66 +7900,66 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
-        <v>348</v>
+        <v>203</v>
       </c>
       <c r="B2" s="91" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
-        <v>349</v>
+        <v>520</v>
       </c>
       <c r="B3" s="76" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
-        <v>419</v>
+        <v>521</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
-        <v>450</v>
+        <v>522</v>
       </c>
       <c r="B5" s="76" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
-        <v>465</v>
+        <v>206</v>
       </c>
       <c r="B6" s="92" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="45" t="s">
-        <v>466</v>
+        <v>145</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="45" t="s">
-        <v>467</v>
+        <v>175</v>
       </c>
       <c r="B8" s="92" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
-        <v>468</v>
+        <v>222</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -8042,17 +7969,18 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" style="53"/>
+    <col min="1" max="1" width="29.85546875" style="53" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="53" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" style="53" customWidth="1"/>
     <col min="4" max="4" width="8.140625" style="95" customWidth="1"/>
     <col min="5" max="5" width="47" style="96" customWidth="1"/>
@@ -8068,10 +7996,10 @@
   <sheetData>
     <row r="1" spans="1:13" s="93" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="97" t="s">
-        <v>504</v>
+        <v>481</v>
       </c>
       <c r="B1" s="97" t="s">
-        <v>505</v>
+        <v>482</v>
       </c>
       <c r="C1" s="97" t="s">
         <v>25</v>
@@ -8095,7 +8023,7 @@
         <v>101</v>
       </c>
       <c r="J1" s="98" t="s">
-        <v>503</v>
+        <v>480</v>
       </c>
       <c r="K1" s="94"/>
       <c r="L1" s="94"/>
@@ -8103,10 +8031,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="101" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>507</v>
+        <v>484</v>
       </c>
       <c r="C2" s="60" t="s">
         <v>57</v>
@@ -8132,10 +8060,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="101" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="C3" s="57" t="s">
         <v>57</v>
@@ -8161,10 +8089,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="101" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>509</v>
+        <v>486</v>
       </c>
       <c r="C4" s="57" t="s">
         <v>57</v>
@@ -8190,10 +8118,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="101" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>510</v>
+        <v>487</v>
       </c>
       <c r="C5" s="57" t="s">
         <v>57</v>
@@ -8219,10 +8147,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="101" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>511</v>
+        <v>488</v>
       </c>
       <c r="C6" s="57" t="s">
         <v>57</v>
@@ -8248,10 +8176,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="101" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>512</v>
+        <v>489</v>
       </c>
       <c r="C7" s="57" t="s">
         <v>57</v>
@@ -8277,10 +8205,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="101" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>513</v>
+        <v>490</v>
       </c>
       <c r="C8" s="57" t="s">
         <v>57</v>
@@ -8381,10 +8309,10 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="66" t="s">
-        <v>514</v>
+        <v>491</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>515</v>
+        <v>492</v>
       </c>
       <c r="C12" s="66" t="s">
         <v>51</v>
@@ -8410,10 +8338,10 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="66" t="s">
-        <v>514</v>
+        <v>491</v>
       </c>
       <c r="B13" s="66" t="s">
-        <v>516</v>
+        <v>493</v>
       </c>
       <c r="C13" s="66" t="s">
         <v>51</v>
@@ -8439,10 +8367,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="66" t="s">
-        <v>514</v>
+        <v>491</v>
       </c>
       <c r="B14" s="66" t="s">
-        <v>517</v>
+        <v>494</v>
       </c>
       <c r="C14" s="66" t="s">
         <v>51</v>
@@ -8468,10 +8396,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="66" t="s">
-        <v>518</v>
+        <v>495</v>
       </c>
       <c r="B15" s="66" t="s">
-        <v>519</v>
+        <v>496</v>
       </c>
       <c r="C15" s="57" t="s">
         <v>72</v>
@@ -8670,10 +8598,10 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="66" t="s">
-        <v>520</v>
+        <v>497</v>
       </c>
       <c r="B23" s="66" t="s">
-        <v>521</v>
+        <v>498</v>
       </c>
       <c r="C23" s="66" t="s">
         <v>74</v>
@@ -8699,10 +8627,10 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="66" t="s">
-        <v>520</v>
+        <v>497</v>
       </c>
       <c r="B24" s="66" t="s">
-        <v>522</v>
+        <v>499</v>
       </c>
       <c r="C24" s="66" t="s">
         <v>74</v>
@@ -8728,10 +8656,10 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="66" t="s">
-        <v>520</v>
+        <v>497</v>
       </c>
       <c r="B25" s="66" t="s">
-        <v>513</v>
+        <v>490</v>
       </c>
       <c r="C25" s="66" t="s">
         <v>74</v>
@@ -8909,7 +8837,7 @@
       <c r="A32" s="66"/>
       <c r="B32" s="66"/>
       <c r="C32" s="61" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D32" s="102">
         <v>2</v>
@@ -8933,7 +8861,7 @@
       <c r="A33" s="66"/>
       <c r="B33" s="66"/>
       <c r="C33" s="61" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D33" s="102">
         <v>1</v>
@@ -9014,7 +8942,7 @@
         <v>125</v>
       </c>
       <c r="F36" s="61" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="G36" s="61" t="s">
         <v>39</v>
@@ -9374,7 +9302,7 @@
         <v>255</v>
       </c>
       <c r="F51" s="108" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G51" s="68" t="s">
         <v>30</v>
@@ -9398,7 +9326,7 @@
         <v>256</v>
       </c>
       <c r="F52" s="108" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G52" s="68" t="s">
         <v>30</v>
@@ -9422,7 +9350,7 @@
         <v>257</v>
       </c>
       <c r="F53" s="108" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G53" s="68" t="s">
         <v>30</v>
@@ -9443,10 +9371,10 @@
         <v>4</v>
       </c>
       <c r="E54" s="108" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="F54" s="108" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="G54" s="68" t="s">
         <v>30</v>
@@ -9509,16 +9437,16 @@
       <c r="A57" s="66"/>
       <c r="B57" s="66"/>
       <c r="C57" s="68" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D57" s="102">
         <v>1</v>
       </c>
       <c r="E57" s="68" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F57" s="68" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G57" s="68" t="s">
         <v>30</v>
@@ -9533,7 +9461,7 @@
       <c r="A58" s="66"/>
       <c r="B58" s="66"/>
       <c r="C58" s="68" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D58" s="102">
         <v>1</v>
@@ -9542,7 +9470,7 @@
         <v>125</v>
       </c>
       <c r="F58" s="108" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G58" s="61" t="s">
         <v>39</v>
@@ -9557,7 +9485,7 @@
       <c r="A59" s="66"/>
       <c r="B59" s="66"/>
       <c r="C59" s="68" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D59" s="102">
         <v>2</v>
@@ -9566,7 +9494,7 @@
         <v>96</v>
       </c>
       <c r="F59" s="108" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G59" s="61" t="s">
         <v>39</v>
@@ -9581,7 +9509,7 @@
       <c r="A60" s="66"/>
       <c r="B60" s="66"/>
       <c r="C60" s="68" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D60" s="102">
         <v>3</v>
@@ -9590,7 +9518,7 @@
         <v>106</v>
       </c>
       <c r="F60" s="108" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G60" s="61" t="s">
         <v>39</v>
@@ -9605,7 +9533,7 @@
       <c r="A61" s="66"/>
       <c r="B61" s="66"/>
       <c r="C61" s="68" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D61" s="102">
         <v>4</v>
@@ -9614,7 +9542,7 @@
         <v>103</v>
       </c>
       <c r="F61" s="108" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="G61" s="61" t="s">
         <v>39</v>
@@ -9629,7 +9557,7 @@
       <c r="A62" s="66"/>
       <c r="B62" s="66"/>
       <c r="C62" s="68" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="D62" s="102">
         <v>1</v>
@@ -9653,7 +9581,7 @@
       <c r="A63" s="66"/>
       <c r="B63" s="66"/>
       <c r="C63" s="68" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D63" s="102">
         <v>1</v>
@@ -9677,16 +9605,16 @@
       <c r="A64" s="66"/>
       <c r="B64" s="66"/>
       <c r="C64" s="68" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D64" s="102">
         <v>1</v>
       </c>
       <c r="E64" s="110" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="F64" s="108" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G64" s="61" t="s">
         <v>30</v>
@@ -9701,16 +9629,16 @@
       <c r="A65" s="66"/>
       <c r="B65" s="66"/>
       <c r="C65" s="68" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="D65" s="102">
         <v>1</v>
       </c>
       <c r="E65" s="111" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="F65" s="108" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G65" s="61" t="s">
         <v>30</v>
@@ -9725,16 +9653,16 @@
       <c r="A66" s="66"/>
       <c r="B66" s="66"/>
       <c r="C66" s="68" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="D66" s="102">
         <v>1</v>
       </c>
       <c r="E66" s="105" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F66" s="66" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G66" s="61" t="s">
         <v>30</v>
@@ -9749,7 +9677,7 @@
       <c r="A67" s="66"/>
       <c r="B67" s="66"/>
       <c r="C67" s="68" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D67" s="102">
         <v>1</v>
@@ -9782,7 +9710,7 @@
         <v>96</v>
       </c>
       <c r="F68" s="107" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="G68" s="61" t="s">
         <v>39</v>
@@ -9806,7 +9734,7 @@
         <v>106</v>
       </c>
       <c r="F69" s="107" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="G69" s="61" t="s">
         <v>39</v>
@@ -9827,10 +9755,10 @@
         <v>1</v>
       </c>
       <c r="E70" s="107" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="F70" s="107" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="G70" s="61" t="s">
         <v>30</v>
@@ -9851,10 +9779,10 @@
         <v>2</v>
       </c>
       <c r="E71" s="107" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="F71" s="107" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="G71" s="61" t="s">
         <v>30</v>
@@ -9867,10 +9795,10 @@
     </row>
     <row r="72" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="66" t="s">
-        <v>523</v>
+        <v>500</v>
       </c>
       <c r="B72" s="66" t="s">
-        <v>524</v>
+        <v>501</v>
       </c>
       <c r="C72" s="112" t="s">
         <v>76</v>
@@ -9879,10 +9807,10 @@
         <v>1</v>
       </c>
       <c r="E72" s="105" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="F72" s="105" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="G72" s="61" t="s">
         <v>30</v>
@@ -9895,10 +9823,10 @@
     </row>
     <row r="73" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="66" t="s">
-        <v>523</v>
+        <v>500</v>
       </c>
       <c r="B73" s="66" t="s">
-        <v>525</v>
+        <v>502</v>
       </c>
       <c r="C73" s="112" t="s">
         <v>76</v>
@@ -9907,10 +9835,10 @@
         <v>2</v>
       </c>
       <c r="E73" s="105" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="F73" s="105" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="G73" s="61" t="s">
         <v>30</v>
@@ -9923,10 +9851,10 @@
     </row>
     <row r="74" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="66" t="s">
-        <v>523</v>
+        <v>500</v>
       </c>
       <c r="B74" s="66" t="s">
-        <v>526</v>
+        <v>503</v>
       </c>
       <c r="C74" s="112" t="s">
         <v>76</v>
@@ -9935,10 +9863,10 @@
         <v>3</v>
       </c>
       <c r="E74" s="105" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="F74" s="105" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="G74" s="61" t="s">
         <v>30</v>
@@ -9956,11 +9884,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:N7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9980,16 +9908,16 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>294</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>358</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>295</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>12</v>
@@ -9998,28 +9926,28 @@
         <v>180</v>
       </c>
       <c r="G1" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="J1" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="I1" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="J1" s="20" t="s">
+      <c r="K1" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="M1" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="K1" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>379</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>299</v>
-      </c>
       <c r="N1" s="20" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10033,7 +9961,7 @@
         <v>259</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>268</v>
@@ -10046,19 +9974,19 @@
         <v>145</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>367</v>
+        <v>168</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="K2" s="22" t="s">
         <v>275</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="N2" s="24"/>
     </row>
@@ -10067,19 +9995,19 @@
         <v>265</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>201</v>
@@ -10088,25 +10016,25 @@
         <v>175</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>362</v>
+        <v>518</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="K3" s="22" t="s">
         <v>276</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="M3" s="34" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>267</v>
@@ -10115,13 +10043,13 @@
         <v>266</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E4" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>361</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>369</v>
       </c>
       <c r="G4" s="22" t="s">
         <v>269</v>
@@ -10130,16 +10058,16 @@
         <v>175</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>362</v>
+        <v>518</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="K4" s="22" t="s">
         <v>276</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="M4" s="22" t="s">
         <v>271</v>
@@ -10157,13 +10085,13 @@
         <v>282</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G5" s="23" t="s">
         <v>194</v>
@@ -10172,19 +10100,19 @@
         <v>222</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>363</v>
+        <v>519</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="K5" s="22" t="s">
         <v>277</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="M5" s="23" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N5" s="25"/>
     </row>
@@ -10196,16 +10124,16 @@
         <v>263</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>194</v>
@@ -10214,64 +10142,63 @@
         <v>222</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>363</v>
+        <v>519</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="K6" s="22" t="s">
         <v>277</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N6" s="25"/>
     </row>
     <row r="7" spans="1:14" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>394</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>472</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="F7" s="29"/>
       <c r="G7" s="32" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H7" s="32" t="s">
         <v>206</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="J7" s="32" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="M7" s="29"/>
       <c r="N7" s="33" t="s">
-        <v>392</v>
-      </c>
-    </row>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="33" ht="79.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
